--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_109_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_109_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.5394987095416093, 1.1818826894280359]</t>
+          <t>[0.5347883006948955, 1.1865930982747497]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.426490691709304e-06</v>
+        <v>3.157125761044099e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>2.426490691709304e-06</v>
+        <v>3.157125761044099e-06</v>
       </c>
       <c r="O2" t="n">
         <v>-0.5157369321208467</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.1891620034626067, 0.15936864901776526]</t>
+          <t>[-0.18912070627014255, 0.1593273518253011]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.8640750287417451</v>
+        <v>0.8640431338694374</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8640750287417451</v>
+        <v>0.8640431338694374</v>
       </c>
       <c r="W2" t="n">
         <v>2.297477477477578</v>
